--- a/data/trans_bre/P38B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,03</t>
+          <t>-3,26; 6,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 10,01</t>
+          <t>0,98; 10,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 8,78</t>
+          <t>-0,61; 8,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,94</t>
+          <t>-3,59; 7,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 12,08</t>
+          <t>1,11; 12,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 10,68</t>
+          <t>-0,65; 10,37</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 5,35</t>
+          <t>-3,7; 5,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,33</t>
+          <t>-3,47; 6,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 7,08</t>
+          <t>-2,99; 6,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 6,1</t>
+          <t>-3,95; 6,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 7,56</t>
+          <t>-3,81; 7,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,51</t>
+          <t>-3,29; 8,37</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 10,98</t>
+          <t>1,17; 10,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 7,62</t>
+          <t>-4,17; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 73,19</t>
+          <t>2,84; 72,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 13,32</t>
+          <t>1,31; 12,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 9,0</t>
+          <t>-4,68; 8,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 379,31</t>
+          <t>3,31; 373,03</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,28</t>
+          <t>-1,66; 5,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,73</t>
+          <t>-2,17; 4,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,43</t>
+          <t>5,17; 15,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 6,35</t>
+          <t>-1,95; 6,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 5,68</t>
+          <t>-2,55; 5,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 19,55</t>
+          <t>6,12; 19,76</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 13,75</t>
+          <t>5,68; 14,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,35</t>
+          <t>2,02; 10,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 11,53</t>
+          <t>-20,61; 11,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 17,78</t>
+          <t>6,82; 18,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 13,22</t>
+          <t>2,45; 13,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 14,47</t>
+          <t>-25,09; 14,66</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,17; 47,21</t>
+          <t>33,84; 47,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 39,78</t>
+          <t>26,91; 40,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,23; 46,23</t>
+          <t>24,68; 47,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,18; 124,04</t>
+          <t>67,13; 122,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,9; 83,01</t>
+          <t>45,15; 84,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,02; 128,07</t>
+          <t>42,74; 136,49</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,51</t>
+          <t>4,0; 7,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,2</t>
+          <t>3,68; 7,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,54; 29,4</t>
+          <t>4,48; 32,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,27</t>
+          <t>4,81; 9,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,91</t>
+          <t>4,48; 8,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 49,74</t>
+          <t>5,54; 57,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
